--- a/StateOfTheArt/timetable.xlsx
+++ b/StateOfTheArt/timetable.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitPerso\LaserCube\StateOfTheArt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitPerso\LaserCube\StateOfTheArt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98A7F97-10CC-412D-8C86-4A03FB0C72D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1FDFAF-EABA-49FD-937C-8CB99265C4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20460" yWindow="3630" windowWidth="20760" windowHeight="15045" xr2:uid="{C87AE35A-D768-4415-8C2B-496293DC5758}"/>
+    <workbookView xWindow="-26865" yWindow="5955" windowWidth="28770" windowHeight="15600" xr2:uid="{C87AE35A-D768-4415-8C2B-496293DC5758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>James bond Middle</t>
   </si>
@@ -55,6 +63,24 @@
   </si>
   <si>
     <t>Hanche Line post hat</t>
+  </si>
+  <si>
+    <t>James Bond Start</t>
+  </si>
+  <si>
+    <t>James bond Middle end</t>
+  </si>
+  <si>
+    <t>James bond end</t>
+  </si>
+  <si>
+    <t>End First Dance</t>
+  </si>
+  <si>
+    <t>After Vote</t>
+  </si>
+  <si>
+    <t>After Vote2</t>
   </si>
 </sst>
 </file>
@@ -406,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D74659-975E-4761-8B25-9731294DD33B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -427,121 +453,211 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <f xml:space="preserve"> C2-B2</f>
-        <v>96</v>
+        <f t="shared" ref="D2:D15" si="0" xml:space="preserve"> C2-B2</f>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>2041</v>
+        <v>124</v>
       </c>
       <c r="C3">
-        <v>2588</v>
+        <v>220</v>
       </c>
       <c r="D3">
-        <f xml:space="preserve"> C3-B3</f>
-        <v>547</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>5503</v>
+        <v>465</v>
       </c>
       <c r="C4">
-        <v>6065</v>
+        <v>553</v>
       </c>
       <c r="D4">
-        <f xml:space="preserve"> C4-B4</f>
-        <v>562</v>
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>6334</v>
+        <v>1141</v>
       </c>
       <c r="C5">
-        <v>6916</v>
+        <v>1223</v>
       </c>
       <c r="D5">
-        <f xml:space="preserve"> C5-B5</f>
-        <v>582</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>8298</v>
+        <v>2042</v>
       </c>
       <c r="C6">
-        <v>8872</v>
+        <v>2590</v>
       </c>
       <c r="D6">
-        <f xml:space="preserve"> C6-B6</f>
-        <v>574</v>
+        <f t="shared" si="0"/>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>9274</v>
+        <v>2607</v>
       </c>
       <c r="C7">
-        <v>9851</v>
+        <v>3153</v>
       </c>
       <c r="D7">
-        <f xml:space="preserve"> C7-B7</f>
-        <v>577</v>
+        <f t="shared" si="0"/>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>9287</v>
+        <v>2811</v>
       </c>
       <c r="C8">
-        <v>9861</v>
+        <v>3354</v>
       </c>
       <c r="D8">
-        <f xml:space="preserve"> C8-B8</f>
-        <v>574</v>
+        <f t="shared" si="0"/>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>4602</v>
+      </c>
+      <c r="C9">
+        <v>5151</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>5504</v>
+      </c>
+      <c r="C10">
+        <v>6066</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>6334</v>
+      </c>
+      <c r="C11">
+        <v>6925</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>8298</v>
+      </c>
+      <c r="C12">
+        <v>8872</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>9274</v>
+      </c>
+      <c r="C13">
+        <v>9851</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>9287</v>
+      </c>
+      <c r="C14">
+        <v>9861</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B15">
         <v>10561</v>
       </c>
-      <c r="C9">
+      <c r="C15">
         <v>11133</v>
       </c>
-      <c r="D9">
-        <f xml:space="preserve"> C9-B9</f>
+      <c r="D15">
+        <f t="shared" si="0"/>
         <v>572</v>
       </c>
     </row>
